--- a/artfynd/A 17778-2025 artfynd.xlsx
+++ b/artfynd/A 17778-2025 artfynd.xlsx
@@ -1893,7 +1893,7 @@
         <v>63289373</v>
       </c>
       <c r="B12" t="n">
-        <v>98920</v>
+        <v>98924</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>53807006</v>
       </c>
       <c r="B14" t="n">
-        <v>98943</v>
+        <v>98947</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
